--- a/docs/StructureDefinition-WhoCompositionProvenance.xlsx
+++ b/docs/StructureDefinition-WhoCompositionProvenance.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$41</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="268">
   <si>
     <t>Path</t>
   </si>
@@ -514,6 +514,13 @@
     <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:role}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Event.reasonCode</t>
   </si>
   <si>
@@ -527,6 +534,17 @@
   </si>
   <si>
     <t>AuditEvent.purposeOfEvent</t>
+  </si>
+  <si>
+    <t>reasonPubHealth</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/ValueSet/v3-PurposeOfUse"/&gt;
+    &lt;code value="PUBHLTH"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Provenance.activity</t>
@@ -729,13 +747,6 @@
   </si>
   <si>
     <t>An entity used in this activity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:role}
-</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>./subjectOf</t>
@@ -988,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2765,7 +2776,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>43</v>
@@ -2825,16 +2836,14 @@
         <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>152</v>
@@ -2852,35 +2861,37 @@
         <v>65</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -2895,10 +2906,10 @@
         <v>153</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2910,7 +2921,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>44</v>
@@ -2928,10 +2939,10 @@
         <v>156</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -2949,13 +2960,13 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
@@ -2964,24 +2975,24 @@
         <v>65</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2989,11 +3000,11 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="G18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3004,20 +3015,16 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3041,13 +3048,13 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3065,13 +3072,13 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG18" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
@@ -3080,24 +3087,24 @@
         <v>65</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>181</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3105,10 +3112,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
@@ -3120,16 +3127,20 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3177,50 +3188,50 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>44</v>
@@ -3232,17 +3243,15 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3297,19 +3306,19 @@
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3323,11 +3332,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3340,26 +3349,24 @@
         <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3407,7 +3414,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3425,7 +3432,7 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3439,30 +3446,30 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>196</v>
@@ -3471,9 +3478,11 @@
         <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -3497,13 +3506,13 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -3521,39 +3530,39 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3564,7 +3573,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -3573,19 +3582,19 @@
         <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>153</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3611,13 +3620,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -3635,13 +3644,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -3650,24 +3659,24 @@
         <v>65</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3675,10 +3684,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -3687,19 +3696,19 @@
         <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3725,13 +3734,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -3749,13 +3758,13 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
@@ -3764,24 +3773,24 @@
         <v>65</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>44</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3789,7 +3798,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>53</v>
@@ -3801,19 +3810,19 @@
         <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3863,10 +3872,10 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>53</v>
@@ -3878,16 +3887,16 @@
         <v>65</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -3895,7 +3904,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3903,11 +3912,11 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
       </c>
@@ -3918,15 +3927,17 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -3963,23 +3974,25 @@
         <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -3991,21 +4004,21 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>234</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4013,10 +4026,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4028,13 +4041,13 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4073,62 +4086,60 @@
         <v>44</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>44</v>
@@ -4140,17 +4151,15 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4205,19 +4214,19 @@
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
@@ -4231,11 +4240,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4248,26 +4257,24 @@
         <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4315,7 +4322,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4333,7 +4340,7 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
@@ -4347,39 +4354,43 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -4403,13 +4414,13 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -4427,39 +4438,39 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>246</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4482,17 +4493,15 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4517,13 +4526,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -4541,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>53</v>
@@ -4559,21 +4568,21 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>118</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4581,10 +4590,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
@@ -4593,19 +4602,19 @@
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4655,13 +4664,13 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
@@ -4673,31 +4682,29 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>43</v>
@@ -4712,15 +4719,17 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -4769,7 +4778,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4787,32 +4796,34 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>234</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -4824,13 +4835,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4881,50 +4892,50 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -4936,17 +4947,15 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5001,19 +5010,19 @@
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5027,11 +5036,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5044,26 +5053,24 @@
         <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5111,7 +5118,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5129,7 +5136,7 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5143,39 +5150,43 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5184,7 +5195,7 @@
         <v>44</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>44</v>
@@ -5199,13 +5210,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5223,39 +5234,39 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>246</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5278,17 +5289,15 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5298,7 +5307,7 @@
         <v>44</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>44</v>
@@ -5313,13 +5322,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -5337,7 +5346,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>53</v>
@@ -5355,21 +5364,21 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>118</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5377,10 +5386,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -5389,19 +5398,19 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5451,13 +5460,13 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -5469,21 +5478,21 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5506,15 +5515,17 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5563,7 +5574,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5581,20 +5592,132 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN40" t="s" s="2">
+      <c r="L41" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN40">
+  <autoFilter ref="A1:AN41">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5604,7 +5727,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
